--- a/biology/Botanique/Malvasia_nera_di_Lecce/Malvasia_nera_di_Lecce.xlsx
+++ b/biology/Botanique/Malvasia_nera_di_Lecce/Malvasia_nera_di_Lecce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Malvasia nera di Lecce est un cépage italien de raisins noirs de la grande famille de Malvasia.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle provient du sud de l’Italie. D'origine probable grecque, elle est proche de la variété Malvasia nera di Basilicata.
 Des études récentes semblent montrer une identité parfaite entre la Malvasia nera de Lecce et la Malvasia nera di Brindisi. Les Malvasia Nera di Lecce n'ont cependant jamais un goût aromatique.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc jaunâtre à liseré carminé.
 Jeunes feuilles duveteuses jaunâtre à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35  jours après le chasselas (2e moitié de septembre).
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est conique. C'est un cépage de vigueur moyenne et peu fertile. Le moût est sucré mais pauvre en acidité. La chair est pulpeuse, très colorée et d'une saveur aromatique. La majorité de la production est vinifié en vin de table, généralement avec les Negramaro, ce qui donne le bon niveau d'alcool, de saveur et de corps. 
 Le vin obtenu est corsé et spiritueux, d'une intense couleur rouge rubis, à l'arôme agréable et à la saveur équilibrée et veloutée.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La malvasia nera di Lecce est connu sous le nom de malvasia niura.
 </t>
